--- a/manualtestset.xlsx
+++ b/manualtestset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eealyandr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eealyandr\Documents\GitHub\skilltest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -916,65 +916,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="186"/>
-      </rPr>
-      <t>Observation 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Filtering element consists of a field and a button “Filter by name”. Field has a placeholder “Filter by computer name…”. The fact that filtering is happening exclusively by a name is mentioned twice.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="186"/>
-      </rPr>
-      <t>Observation 2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Firefox browser specific issue: in the searchbox there is button to clear the value (in Chrome and IE11 there is a small cross icon).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="186"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">All 3 test cases have been chosen for the regression test set and are automated. 
 Test case 2 - test "A_addPcCancel";
 Test case 3 - test "B_addPcMandatoryFields";
@@ -3405,6 +3346,118 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Not possible to select a number of rows to display on a single page when using pagination(e.g 10,20, 50, 100). There are also no buttons to come back to the very first page or to open the very last page. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+      </rPr>
+      <t>Observation 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Filtering element consists of a field and a button “Filter by name”. Field has a placeholder “Filter by computer name…”. The fact that filtering is happening exclusively by a name is mentioned twice.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+      </rPr>
+      <t>Observation 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  in IE11, all the textfields have a small  button to clear entered value (cross icon in the right part of the field).In Chrome only searchbox has this button; in Firefox none of the textfields have it.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+      </rPr>
+      <t>Observation 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+      </rPr>
+      <t>sometimes</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">in Chrome, when pressing "Next" button and moving through the table pages buttons "Filter by name" and "Add a new computer" are kind of "flashing" or "jumping" which makes it a bit uncomfortable for the eyes.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+      </rPr>
+      <t/>
     </r>
   </si>
 </sst>
@@ -4384,8 +4437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4547,10 +4600,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F5" s="54"/>
       <c r="G5" s="1"/>
@@ -4585,13 +4638,13 @@
         <v>12</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="58" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="54"/>
       <c r="G6" s="1"/>
@@ -4698,13 +4751,13 @@
         <v>32</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="55" t="s">
         <v>39</v>
-      </c>
-      <c r="E9" s="55" t="s">
-        <v>40</v>
       </c>
       <c r="F9" s="54"/>
     </row>
@@ -4714,7 +4767,7 @@
       </c>
       <c r="B10" s="66"/>
       <c r="C10" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="66"/>
       <c r="E10" s="64"/>
@@ -4728,13 +4781,13 @@
         <v>35</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="54"/>
     </row>
@@ -4746,13 +4799,13 @@
         <v>36</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" s="54"/>
     </row>
@@ -4854,13 +4907,13 @@
     </row>
     <row r="15" spans="1:51" s="28" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>16</v>
@@ -4872,16 +4925,16 @@
     </row>
     <row r="16" spans="1:51" s="3" customFormat="1" ht="213" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E16" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" s="54"/>
     </row>
@@ -4891,7 +4944,7 @@
       </c>
       <c r="B17" s="60"/>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="40" t="s">
         <v>18</v>
@@ -4903,21 +4956,21 @@
         <v>13</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="54"/>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="62"/>
       <c r="C19" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" s="41"/>
       <c r="F19" s="54"/>
@@ -4928,28 +4981,28 @@
       </c>
       <c r="B20" s="63"/>
       <c r="C20" s="51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="40" t="s">
         <v>59</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>60</v>
       </c>
       <c r="F20" s="54"/>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="40" t="s">
         <v>62</v>
-      </c>
-      <c r="B21" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>63</v>
       </c>
       <c r="F21" s="54"/>
     </row>
@@ -4958,10 +5011,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="52" t="s">
         <v>24</v>
@@ -4976,16 +5029,16 @@
         <v>23</v>
       </c>
       <c r="B23" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="E23" s="42" t="s">
         <v>71</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>72</v>
       </c>
       <c r="F23" s="54"/>
     </row>
